--- a/5 Python/210412_varNameAutoCreate_mine/test2.xlsx
+++ b/5 Python/210412_varNameAutoCreate_mine/test2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>makeButton_</t>
+          <t>mainForm_input</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -438,19 +438,19 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="F1" t="n">
         <v>1</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>makeButton_1</t>
+          <t>mainForm_input1.Text</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">makeButton_1, makeButton_2, makeButton_3, makeButton_4, makeButton_5, makeButton_6, makeButton_7, makeButton_8, makeButton_9, makeButton_10, makeButton_11, makeButton_12, makeButton_13, makeButton_14, makeButton_15, makeButton_16, makeButton_17, makeButton_18, makeButton_19, makeButton_20, makeButton_21, makeButton_22, makeButton_23, makeButton_24, makeButton_25, makeButton_26, makeButton_27, makeButton_28, makeButton_29, makeButton_30, makeButton_31, makeButton_32, makeButton_33, makeButton_34, makeButton_35, makeButton_36, makeButton_37, makeButton_38, makeButton_39, makeButton_40, makeButton_41, makeButton_42, makeButton_43, makeButton_44, makeButton_45, makeButton_46, makeButton_47, makeButton_48, makeButton_49, makeButton_50, makeButton_51, makeButton_52, makeButton_53, makeButton_54, makeButton_55, makeButton_56, makeButton_57, makeButton_58, makeButton_59, makeButton_60, makeButton_61, makeButton_62, makeButton_63, makeButton_64, makeButton_65, makeButton_66, makeButton_67, makeButton_68, makeButton_69, makeButton_70, makeButton_71, makeButton_72, makeButton_73, makeButton_74, makeButton_75, makeButton_76, makeButton_77, makeButton_78, makeButton_79, makeButton_80, makeButton_81, makeButton_82, makeButton_83, makeButton_84, makeButton_85, makeButton_86, makeButton_87, makeButton_88, makeButton_89, makeButton_90, makeButton_91, makeButton_92, makeButton_93, makeButton_94, makeButton_95, makeButton_96, makeButton_97, makeButton_98, makeButton_99, makeButton_100, makeButton_101, makeButton_102, makeButton_103, makeButton_104, makeButton_105, makeButton_106, makeButton_107, makeButton_108, makeButton_109, makeButton_110, makeButton_111, makeButton_112, makeButton_113, makeButton_114, makeButton_115, makeButton_116, makeButton_117, makeButton_118, makeButton_119, makeButton_120, makeButton_121, makeButton_122, makeButton_123, makeButton_124, makeButton_125, makeButton_126, makeButton_127, makeButton_128, makeButton_129, makeButton_130, makeButton_131, makeButton_132, makeButton_133, makeButton_134, makeButton_135, makeButton_136, makeButton_137, makeButton_138, makeButton_139, makeButton_140, makeButton_141, makeButton_142, makeButton_143, makeButton_144, makeButton_145, makeButton_146, makeButton_147, makeButton_148, makeButton_149, makeButton_150, </t>
+          <t xml:space="preserve">mainForm_input1.Text, mainForm_input2.Text, mainForm_input3.Text, mainForm_input4.Text, mainForm_input5.Text, mainForm_input6.Text, mainForm_input7.Text, mainForm_input8.Text, mainForm_input9.Text, mainForm_input10.Text, mainForm_input11.Text, mainForm_input12.Text, mainForm_input13.Text, mainForm_input14.Text, mainForm_input15.Text, mainForm_input16.Text, mainForm_input17.Text, mainForm_input18.Text, mainForm_input19.Text, mainForm_input20.Text, mainForm_input21.Text, mainForm_input22.Text, mainForm_input23.Text, mainForm_input24.Text, mainForm_input25.Text, mainForm_input26.Text, mainForm_input27.Text, mainForm_input28.Text, mainForm_input29.Text, mainForm_input30.Text, mainForm_input31.Text, mainForm_input32.Text, mainForm_input33.Text, mainForm_input34.Text, mainForm_input35.Text, mainForm_input36.Text, mainForm_input37.Text, mainForm_input38.Text, mainForm_input39.Text, mainForm_input40.Text, mainForm_input41.Text, mainForm_input42.Text, mainForm_input43.Text, mainForm_input44.Text, mainForm_input45.Text, mainForm_input46.Text, mainForm_input47.Text, mainForm_input48.Text, mainForm_input49.Text, mainForm_input50.Text, mainForm_input51.Text, mainForm_input52.Text, mainForm_input53.Text, mainForm_input54.Text, mainForm_input55.Text, mainForm_input56.Text, mainForm_input57.Text, mainForm_input58.Text, mainForm_input59.Text, mainForm_input60.Text, mainForm_input61.Text, mainForm_input62.Text, mainForm_input63.Text, mainForm_input64.Text, mainForm_input65.Text, mainForm_input66.Text, mainForm_input67.Text, mainForm_input68.Text, mainForm_input69.Text, mainForm_input70.Text, mainForm_input71.Text, mainForm_input72.Text, mainForm_input73.Text, mainForm_input74.Text, mainForm_input75.Text, mainForm_input76.Text, mainForm_input77.Text, mainForm_input78.Text, mainForm_input79.Text, mainForm_input80.Text, mainForm_input81.Text, mainForm_input82.Text, mainForm_input83.Text, mainForm_input84.Text, mainForm_input85.Text, mainForm_input86.Text, mainForm_input87.Text, mainForm_input88.Text, mainForm_input89.Text, mainForm_input90.Text, mainForm_input91.Text, mainForm_input92.Text, mainForm_input93.Text, mainForm_input94.Text, mainForm_input95.Text, mainForm_input96.Text, mainForm_input97.Text, mainForm_input98.Text, mainForm_input99.Text, mainForm_input100.Text, mainForm_input101.Text, mainForm_input102.Text, mainForm_input103.Text, mainForm_input104.Text, mainForm_input105.Text, mainForm_input106.Text, mainForm_input107.Text, mainForm_input108.Text, mainForm_input109.Text, mainForm_input110.Text, mainForm_input111.Text, mainForm_input112.Text, mainForm_input113.Text, mainForm_input114.Text, mainForm_input115.Text, mainForm_input116.Text, mainForm_input117.Text, mainForm_input118.Text, mainForm_input119.Text, mainForm_input120.Text, mainForm_input121.Text, mainForm_input122.Text, mainForm_input123.Text, mainForm_input124.Text, mainForm_input125.Text, mainForm_input126.Text, mainForm_input127.Text, mainForm_input128.Text, mainForm_input129.Text, mainForm_input130.Text, mainForm_input131.Text, mainForm_input132.Text, mainForm_input133.Text, mainForm_input134.Text, mainForm_input135.Text, mainForm_input136.Text, mainForm_input137.Text, mainForm_input138.Text, mainForm_input139.Text, mainForm_input140.Text, mainForm_input141.Text, mainForm_input142.Text, mainForm_input143.Text, mainForm_input144.Text, mainForm_input145.Text, mainForm_input146.Text, mainForm_input147.Text, mainForm_input148.Text, mainForm_input149.Text, mainForm_input150.Text, mainForm_input151.Text, mainForm_input152.Text, mainForm_input153.Text, mainForm_input154.Text, mainForm_input155.Text, mainForm_input156.Text, mainForm_input157.Text, mainForm_input158.Text, mainForm_input159.Text, mainForm_input160.Text, mainForm_input161.Text, mainForm_input162.Text, mainForm_input163.Text, mainForm_input164.Text, mainForm_input165.Text, mainForm_input166.Text, mainForm_input167.Text, mainForm_input168.Text, mainForm_input169.Text, mainForm_input170.Text, mainForm_input171.Text, mainForm_input172.Text, mainForm_input173.Text, mainForm_input174.Text, mainForm_input175.Text, mainForm_input176.Text, mainForm_input177.Text, mainForm_input178.Text, mainForm_input179.Text, mainForm_input180.Text, mainForm_input181.Text, mainForm_input182.Text, mainForm_input183.Text, mainForm_input184.Text, mainForm_input185.Text, mainForm_input186.Text, mainForm_input187.Text, mainForm_input188.Text, mainForm_input189.Text, mainForm_input190.Text, mainForm_input191.Text, mainForm_input192.Text, mainForm_input193.Text, mainForm_input194.Text, mainForm_input195.Text, mainForm_input196.Text, mainForm_input197.Text, mainForm_input198.Text, mainForm_input199.Text, mainForm_input200.Text, mainForm_input201.Text, mainForm_input202.Text, mainForm_input203.Text, mainForm_input204.Text, mainForm_input205.Text, mainForm_input206.Text, mainForm_input207.Text, mainForm_input208.Text, mainForm_input209.Text, mainForm_input210.Text, mainForm_input211.Text, mainForm_input212.Text, mainForm_input213.Text, mainForm_input214.Text, mainForm_input215.Text, mainForm_input216.Text, mainForm_input217.Text, mainForm_input218.Text, mainForm_input219.Text, mainForm_input220.Text, mainForm_input221.Text, mainForm_input222.Text, mainForm_input223.Text, mainForm_input224.Text, mainForm_input225.Text, mainForm_input226.Text, mainForm_input227.Text, mainForm_input228.Text, mainForm_input229.Text, mainForm_input230.Text, mainForm_input231.Text, mainForm_input232.Text, mainForm_input233.Text, mainForm_input234.Text, mainForm_input235.Text, mainForm_input236.Text, mainForm_input237.Text, mainForm_input238.Text, mainForm_input239.Text, mainForm_input240.Text, mainForm_input241.Text, mainForm_input242.Text, mainForm_input243.Text, mainForm_input244.Text, mainForm_input245.Text, mainForm_input246.Text, mainForm_input247.Text, mainForm_input248.Text, mainForm_input249.Text, mainForm_input250.Text, mainForm_input251.Text, mainForm_input252.Text, mainForm_input253.Text, mainForm_input254.Text, mainForm_input255.Text, mainForm_input256.Text, mainForm_input257.Text, mainForm_input258.Text, mainForm_input259.Text, mainForm_input260.Text, mainForm_input261.Text, mainForm_input262.Text, mainForm_input263.Text, mainForm_input264.Text, mainForm_input265.Text, mainForm_input266.Text, mainForm_input267.Text, mainForm_input268.Text, mainForm_input269.Text, mainForm_input270.Text, mainForm_input271.Text, mainForm_input272.Text, mainForm_input273.Text, mainForm_input274.Text, mainForm_input275.Text, mainForm_input276.Text, mainForm_input277.Text, mainForm_input278.Text, mainForm_input279.Text, mainForm_input280.Text, mainForm_input281.Text, mainForm_input282.Text, mainForm_input283.Text, mainForm_input284.Text, mainForm_input285.Text, mainForm_input286.Text, mainForm_input287.Text, mainForm_input288.Text, mainForm_input289.Text, mainForm_input290.Text, mainForm_input291.Text, mainForm_input292.Text, mainForm_input293.Text, mainForm_input294.Text, mainForm_input295.Text, mainForm_input296.Text, mainForm_input297.Text, mainForm_input298.Text, mainForm_input299.Text, mainForm_input300.Text, mainForm_input301.Text, mainForm_input302.Text, mainForm_input303.Text, mainForm_input304.Text, mainForm_input305.Text, mainForm_input306.Text, mainForm_input307.Text, mainForm_input308.Text, mainForm_input309.Text, mainForm_input310.Text, mainForm_input311.Text, mainForm_input312.Text, mainForm_input313.Text, mainForm_input314.Text, mainForm_input315.Text, mainForm_input316.Text, mainForm_input317.Text, mainForm_input318.Text, mainForm_input319.Text, mainForm_input320.Text, mainForm_input321.Text, mainForm_input322.Text, mainForm_input323.Text, mainForm_input324.Text, mainForm_input325.Text, mainForm_input326.Text, mainForm_input327.Text, mainForm_input328.Text, mainForm_input329.Text, mainForm_input330.Text, mainForm_input331.Text, mainForm_input332.Text, mainForm_input333.Text, mainForm_input334.Text, mainForm_input335.Text, mainForm_input336.Text, mainForm_input337.Text, mainForm_input338.Text, mainForm_input339.Text, mainForm_input340.Text, mainForm_input341.Text, mainForm_input342.Text, mainForm_input343.Text, mainForm_input344.Text, mainForm_input345.Text, mainForm_input346.Text, mainForm_input347.Text, mainForm_input348.Text, mainForm_input349.Text, mainForm_input350.Text, mainForm_input351.Text, mainForm_input352.Text, mainForm_input353.Text, mainForm_input354.Text, mainForm_input355.Text, mainForm_input356.Text, mainForm_input357.Text, mainForm_input358.Text, mainForm_input359.Text, mainForm_input360.Text, mainForm_input361.Text, mainForm_input362.Text, mainForm_input363.Text, mainForm_input364.Text, mainForm_input365.Text, mainForm_input366.Text, mainForm_input367.Text, mainForm_input368.Text, mainForm_input369.Text, mainForm_input370.Text, mainForm_input371.Text, mainForm_input372.Text, mainForm_input373.Text, mainForm_input374.Text, mainForm_input375.Text, mainForm_input376.Text, mainForm_input377.Text, mainForm_input378.Text, mainForm_input379.Text, mainForm_input380.Text, mainForm_input381.Text, mainForm_input382.Text, mainForm_input383.Text, mainForm_input384.Text, mainForm_input385.Text, mainForm_input386.Text, mainForm_input387.Text, mainForm_input388.Text, mainForm_input389.Text, mainForm_input390.Text, mainForm_input391.Text, mainForm_input392.Text, mainForm_input393.Text, mainForm_input394.Text, mainForm_input395.Text, mainForm_input396.Text, mainForm_input397.Text, mainForm_input398.Text, mainForm_input399.Text, mainForm_input400.Text, mainForm_input401.Text, mainForm_input402.Text, mainForm_input403.Text, mainForm_input404.Text, mainForm_input405.Text, mainForm_input406.Text, mainForm_input407.Text, mainForm_input408.Text, mainForm_input409.Text, mainForm_input410.Text, mainForm_input411.Text, mainForm_input412.Text, mainForm_input413.Text, mainForm_input414.Text, mainForm_input415.Text, mainForm_input416.Text, mainForm_input417.Text, mainForm_input418.Text, mainForm_input419.Text, mainForm_input420.Text, mainForm_input421.Text, mainForm_input422.Text, mainForm_input423.Text, mainForm_input424.Text, mainForm_input425.Text, mainForm_input426.Text, mainForm_input427.Text, mainForm_input428.Text, mainForm_input429.Text, mainForm_input430.Text, mainForm_input431.Text, mainForm_input432.Text, mainForm_input433.Text, mainForm_input434.Text, mainForm_input435.Text, mainForm_input436.Text, mainForm_input437.Text, mainForm_input438.Text, mainForm_input439.Text, mainForm_input440.Text, mainForm_input441.Text, mainForm_input442.Text, mainForm_input443.Text, mainForm_input444.Text, mainForm_input445.Text, mainForm_input446.Text, mainForm_input447.Text, mainForm_input448.Text, mainForm_input449.Text, mainForm_input450.Text, mainForm_input451.Text, mainForm_input452.Text, mainForm_input453.Text, mainForm_input454.Text, mainForm_input455.Text, mainForm_input456.Text, mainForm_input457.Text, mainForm_input458.Text, mainForm_input459.Text, mainForm_input460.Text, mainForm_input461.Text, mainForm_input462.Text, mainForm_input463.Text, mainForm_input464.Text, mainForm_input465.Text, mainForm_input466.Text, mainForm_input467.Text, mainForm_input468.Text, mainForm_input469.Text, mainForm_input470.Text, mainForm_input471.Text, mainForm_input472.Text, mainForm_input473.Text, mainForm_input474.Text, mainForm_input475.Text, mainForm_input476.Text, mainForm_input477.Text, mainForm_input478.Text, mainForm_input479.Text, mainForm_input480.Text, mainForm_input481.Text, mainForm_input482.Text, mainForm_input483.Text, mainForm_input484.Text, mainForm_input485.Text, mainForm_input486.Text, mainForm_input487.Text, mainForm_input488.Text, mainForm_input489.Text, mainForm_input490.Text, mainForm_input491.Text, mainForm_input492.Text, mainForm_input493.Text, mainForm_input494.Text, mainForm_input495.Text, mainForm_input496.Text, mainForm_input497.Text, mainForm_input498.Text, mainForm_input499.Text, mainForm_input500.Text, mainForm_input501.Text, mainForm_input502.Text, mainForm_input503.Text, mainForm_input504.Text, mainForm_input505.Text, mainForm_input506.Text, mainForm_input507.Text, mainForm_input508.Text, mainForm_input509.Text, mainForm_input510.Text, mainForm_input511.Text, mainForm_input512.Text, mainForm_input513.Text, mainForm_input514.Text, mainForm_input515.Text, mainForm_input516.Text, mainForm_input517.Text, mainForm_input518.Text, mainForm_input519.Text, mainForm_input520.Text, mainForm_input521.Text, mainForm_input522.Text, mainForm_input523.Text, mainForm_input524.Text, mainForm_input525.Text, mainForm_input526.Text, mainForm_input527.Text, mainForm_input528.Text, mainForm_input529.Text, mainForm_input530.Text, mainForm_input531.Text, mainForm_input532.Text, mainForm_input533.Text, mainForm_input534.Text, mainForm_input535.Text, mainForm_input536.Text, mainForm_input537.Text, mainForm_input538.Text, mainForm_input539.Text, mainForm_input540.Text, mainForm_input541.Text, mainForm_input542.Text, mainForm_input543.Text, mainForm_input544.Text, mainForm_input545.Text, mainForm_input546.Text, mainForm_input547.Text, mainForm_input548.Text, mainForm_input549.Text, mainForm_input550.Text, mainForm_input551.Text, mainForm_input552.Text, mainForm_input553.Text, mainForm_input554.Text, mainForm_input555.Text, mainForm_input556.Text, mainForm_input557.Text, mainForm_input558.Text, mainForm_input559.Text, mainForm_input560.Text, mainForm_input561.Text, mainForm_input562.Text, mainForm_input563.Text, mainForm_input564.Text, mainForm_input565.Text, mainForm_input566.Text, mainForm_input567.Text, mainForm_input568.Text, mainForm_input569.Text, mainForm_input570.Text, mainForm_input571.Text, mainForm_input572.Text, mainForm_input573.Text, mainForm_input574.Text, mainForm_input575.Text, mainForm_input576.Text, mainForm_input577.Text, mainForm_input578.Text, mainForm_input579.Text, mainForm_input580.Text, mainForm_input581.Text, mainForm_input582.Text, mainForm_input583.Text, mainForm_input584.Text, mainForm_input585.Text, mainForm_input586.Text, mainForm_input587.Text, mainForm_input588.Text, mainForm_input589.Text, mainForm_input590.Text, mainForm_input591.Text, mainForm_input592.Text, mainForm_input593.Text, mainForm_input594.Text, mainForm_input595.Text, mainForm_input596.Text, mainForm_input597.Text, mainForm_input598.Text, mainForm_input599.Text, mainForm_input600.Text, mainForm_input601.Text, mainForm_input602.Text, mainForm_input603.Text, mainForm_input604.Text, mainForm_input605.Text, mainForm_input606.Text, mainForm_input607.Text, mainForm_input608.Text, mainForm_input609.Text, mainForm_input610.Text, mainForm_input611.Text, mainForm_input612.Text, mainForm_input613.Text, mainForm_input614.Text, mainForm_input615.Text, mainForm_input616.Text, mainForm_input617.Text, mainForm_input618.Text, mainForm_input619.Text, mainForm_input620.Text, mainForm_input621.Text, mainForm_input622.Text, mainForm_input623.Text, mainForm_input624.Text, mainForm_input625.Text, mainForm_input626.Text, mainForm_input627.Text, mainForm_input628.Text, mainForm_input629.Text, mainForm_input630.Text, mainForm_input631.Text, mainForm_input632.Text, mainForm_input633.Text, mainForm_input634.Text, mainForm_input635.Text, mainForm_input636.Text, mainForm_input637.Text, mainForm_input638.Text, mainForm_input639.Text, mainForm_input640.Text, mainForm_input641.Text, mainForm_input642.Text, mainForm_input643.Text, mainForm_input644.Text, mainForm_input645.Text, mainForm_input646.Text, mainForm_input647.Text, mainForm_input648.Text, mainForm_input649.Text, mainForm_input650.Text, mainForm_input651.Text, mainForm_input652.Text, mainForm_input653.Text, mainForm_input654.Text, mainForm_input655.Text, mainForm_input656.Text, mainForm_input657.Text, mainForm_input658.Text, mainForm_input659.Text, mainForm_input660.Text, mainForm_input661.Text, mainForm_input662.Text, mainForm_input663.Text, mainForm_input664.Text, mainForm_input665.Text, mainForm_input666.Text, mainForm_input667.Text, mainForm_input668.Text, mainForm_input669.Text, mainForm_input670.Text, mainForm_input671.Text, mainForm_input672.Text, mainForm_input673.Text, mainForm_input674.Text, mainForm_input675.Text, mainForm_input676.Text, mainForm_input677.Text, mainForm_input678.Text, mainForm_input679.Text, mainForm_input680.Text, mainForm_input681.Text, mainForm_input682.Text, mainForm_input683.Text, mainForm_input684.Text, mainForm_input685.Text, mainForm_input686.Text, mainForm_input687.Text, mainForm_input688.Text, mainForm_input689.Text, mainForm_input690.Text, mainForm_input691.Text, mainForm_input692.Text, mainForm_input693.Text, mainForm_input694.Text, mainForm_input695.Text, mainForm_input696.Text, mainForm_input697.Text, mainForm_input698.Text, mainForm_input699.Text, mainForm_input700.Text, mainForm_input701.Text, mainForm_input702.Text, mainForm_input703.Text, mainForm_input704.Text, mainForm_input705.Text, mainForm_input706.Text, mainForm_input707.Text, mainForm_input708.Text, mainForm_input709.Text, mainForm_input710.Text, mainForm_input711.Text, mainForm_input712.Text, mainForm_input713.Text, mainForm_input714.Text, mainForm_input715.Text, mainForm_input716.Text, mainForm_input717.Text, mainForm_input718.Text, mainForm_input719.Text, mainForm_input720.Text, mainForm_input721.Text, mainForm_input722.Text, mainForm_input723.Text, mainForm_input724.Text, mainForm_input725.Text, mainForm_input726.Text, mainForm_input727.Text, mainForm_input728.Text, mainForm_input729.Text, mainForm_input730.Text, mainForm_input731.Text, mainForm_input732.Text, mainForm_input733.Text, mainForm_input734.Text, mainForm_input735.Text, mainForm_input736.Text, mainForm_input737.Text, mainForm_input738.Text, mainForm_input739.Text, mainForm_input740.Text, mainForm_input741.Text, mainForm_input742.Text, mainForm_input743.Text, mainForm_input744.Text, mainForm_input745.Text, mainForm_input746.Text, mainForm_input747.Text, mainForm_input748.Text, mainForm_input749.Text, mainForm_input750.Text, mainForm_input751.Text, mainForm_input752.Text, mainForm_input753.Text, mainForm_input754.Text, mainForm_input755.Text, mainForm_input756.Text, mainForm_input757.Text, mainForm_input758.Text, mainForm_input759.Text, mainForm_input760.Text, mainForm_input761.Text, mainForm_input762.Text, mainForm_input763.Text, mainForm_input764.Text, mainForm_input765.Text, mainForm_input766.Text, mainForm_input767.Text, mainForm_input768.Text, mainForm_input769.Text, mainForm_input770.Text, mainForm_input771.Text, mainForm_input772.Text, mainForm_input773.Text, mainForm_input774.Text, mainForm_input775.Text, mainForm_input776.Text, mainForm_input777.Text, mainForm_input778.Text, mainForm_input779.Text, mainForm_input780.Text, mainForm_input781.Text, mainForm_input782.Text, mainForm_input783.Text, mainForm_input784.Text, mainForm_input785.Text, mainForm_input786.Text, mainForm_input787.Text, mainForm_input788.Text, mainForm_input789.Text, mainForm_input790.Text, mainForm_input791.Text, mainForm_input792.Text, mainForm_input793.Text, mainForm_input794.Text, mainForm_input795.Text, mainForm_input796.Text, mainForm_input797.Text, mainForm_input798.Text, mainForm_input799.Text, mainForm_input800.Text, mainForm_input801.Text, mainForm_input802.Text, mainForm_input803.Text, mainForm_input804.Text, mainForm_input805.Text, mainForm_input806.Text, mainForm_input807.Text, mainForm_input808.Text, mainForm_input809.Text, mainForm_input810.Text, mainForm_input811.Text, mainForm_input812.Text, mainForm_input813.Text, mainForm_input814.Text, mainForm_input815.Text, mainForm_input816.Text, mainForm_input817.Text, mainForm_input818.Text, mainForm_input819.Text, mainForm_input820.Text, mainForm_input821.Text, mainForm_input822.Text, mainForm_input823.Text, mainForm_input824.Text, mainForm_input825.Text, mainForm_input826.Text, mainForm_input827.Text, mainForm_input828.Text, mainForm_input829.Text, mainForm_input830.Text, mainForm_input831.Text, mainForm_input832.Text, mainForm_input833.Text, mainForm_input834.Text, mainForm_input835.Text, mainForm_input836.Text, mainForm_input837.Text, mainForm_input838.Text, mainForm_input839.Text, mainForm_input840.Text, mainForm_input841.Text, mainForm_input842.Text, mainForm_input843.Text, mainForm_input844.Text, mainForm_input845.Text, mainForm_input846.Text, mainForm_input847.Text, mainForm_input848.Text, mainForm_input849.Text, mainForm_input850.Text, mainForm_input851.Text, mainForm_input852.Text, mainForm_input853.Text, mainForm_input854.Text, mainForm_input855.Text, mainForm_input856.Text, mainForm_input857.Text, mainForm_input858.Text, mainForm_input859.Text, mainForm_input860.Text, mainForm_input861.Text, mainForm_input862.Text, mainForm_input863.Text, mainForm_input864.Text, mainForm_input865.Text, mainForm_input866.Text, mainForm_input867.Text, mainForm_input868.Text, mainForm_input869.Text, mainForm_input870.Text, mainForm_input871.Text, mainForm_input872.Text, mainForm_input873.Text, mainForm_input874.Text, mainForm_input875.Text, mainForm_input876.Text, mainForm_input877.Text, mainForm_input878.Text, mainForm_input879.Text, mainForm_input880.Text, mainForm_input881.Text, mainForm_input882.Text, mainForm_input883.Text, mainForm_input884.Text, mainForm_input885.Text, mainForm_input886.Text, mainForm_input887.Text, mainForm_input888.Text, mainForm_input889.Text, mainForm_input890.Text, mainForm_input891.Text, mainForm_input892.Text, mainForm_input893.Text, mainForm_input894.Text, mainForm_input895.Text, mainForm_input896.Text, mainForm_input897.Text, mainForm_input898.Text, mainForm_input899.Text, mainForm_input900.Text, mainForm_input901.Text, mainForm_input902.Text, mainForm_input903.Text, mainForm_input904.Text, mainForm_input905.Text, mainForm_input906.Text, mainForm_input907.Text, mainForm_input908.Text, mainForm_input909.Text, mainForm_input910.Text, mainForm_input911.Text, mainForm_input912.Text, mainForm_input913.Text, mainForm_input914.Text, mainForm_input915.Text, mainForm_input916.Text, mainForm_input917.Text, mainForm_input918.Text, mainForm_input919.Text, mainForm_input920.Text, mainForm_input921.Text, mainForm_input922.Text, mainForm_input923.Text, mainForm_input924.Text, mainForm_input925.Text, mainForm_input926.Text, mainForm_input927.Text, mainForm_input928.Text, mainForm_input929.Text, mainForm_input930.Text, mainForm_input931.Text, mainForm_input932.Text, mainForm_input933.Text, mainForm_input934.Text, mainForm_input935.Text, mainForm_input936.Text, mainForm_input937.Text, mainForm_input938.Text, mainForm_input939.Text, mainForm_input940.Text, mainForm_input941.Text, mainForm_input942.Text, mainForm_input943.Text, mainForm_input944.Text, mainForm_input945.Text, mainForm_input946.Text, mainForm_input947.Text, mainForm_input948.Text, mainForm_input949.Text, mainForm_input950.Text, mainForm_input951.Text, mainForm_input952.Text, mainForm_input953.Text, mainForm_input954.Text, mainForm_input955.Text, mainForm_input956.Text, mainForm_input957.Text, mainForm_input958.Text, mainForm_input959.Text, mainForm_input960.Text, mainForm_input961.Text, mainForm_input962.Text, mainForm_input963.Text, mainForm_input964.Text, mainForm_input965.Text, mainForm_input966.Text, mainForm_input967.Text, mainForm_input968.Text, mainForm_input969.Text, mainForm_input970.Text, mainForm_input971.Text, mainForm_input972.Text, mainForm_input973.Text, mainForm_input974.Text, mainForm_input975.Text, mainForm_input976.Text, mainForm_input977.Text, mainForm_input978.Text, mainForm_input979.Text, mainForm_input980.Text, mainForm_input981.Text, mainForm_input982.Text, mainForm_input983.Text, mainForm_input984.Text, mainForm_input985.Text, mainForm_input986.Text, mainForm_input987.Text, mainForm_input988.Text, mainForm_input989.Text, mainForm_input990.Text, mainForm_input991.Text, mainForm_input992.Text, mainForm_input993.Text, mainForm_input994.Text, mainForm_input995.Text, mainForm_input996.Text, mainForm_input997.Text, mainForm_input998.Text, mainForm_input999.Text, mainForm_input1000.Text, </t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>makeButton_2</t>
+          <t>mainForm_input2.Text</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>makeButton_3</t>
+          <t>mainForm_input3.Text</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>makeButton_4</t>
+          <t>mainForm_input4.Text</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>makeButton_5</t>
+          <t>mainForm_input5.Text</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>makeButton_6</t>
+          <t>mainForm_input6.Text</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>makeButton_7</t>
+          <t>mainForm_input7.Text</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>makeButton_8</t>
+          <t>mainForm_input8.Text</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>makeButton_9</t>
+          <t>mainForm_input9.Text</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>makeButton_10</t>
+          <t>mainForm_input10.Text</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>makeButton_11</t>
+          <t>mainForm_input11.Text</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>makeButton_12</t>
+          <t>mainForm_input12.Text</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>makeButton_13</t>
+          <t>mainForm_input13.Text</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>makeButton_14</t>
+          <t>mainForm_input14.Text</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>makeButton_15</t>
+          <t>mainForm_input15.Text</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>makeButton_16</t>
+          <t>mainForm_input16.Text</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>makeButton_17</t>
+          <t>mainForm_input17.Text</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>makeButton_18</t>
+          <t>mainForm_input18.Text</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>makeButton_19</t>
+          <t>mainForm_input19.Text</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>makeButton_20</t>
+          <t>mainForm_input20.Text</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>makeButton_21</t>
+          <t>mainForm_input21.Text</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>makeButton_22</t>
+          <t>mainForm_input22.Text</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>makeButton_23</t>
+          <t>mainForm_input23.Text</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>makeButton_24</t>
+          <t>mainForm_input24.Text</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>makeButton_25</t>
+          <t>mainForm_input25.Text</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>makeButton_26</t>
+          <t>mainForm_input26.Text</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>makeButton_27</t>
+          <t>mainForm_input27.Text</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>makeButton_28</t>
+          <t>mainForm_input28.Text</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>makeButton_29</t>
+          <t>mainForm_input29.Text</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>makeButton_30</t>
+          <t>mainForm_input30.Text</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>makeButton_31</t>
+          <t>mainForm_input31.Text</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>makeButton_32</t>
+          <t>mainForm_input32.Text</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>makeButton_33</t>
+          <t>mainForm_input33.Text</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>makeButton_34</t>
+          <t>mainForm_input34.Text</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>makeButton_35</t>
+          <t>mainForm_input35.Text</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>makeButton_36</t>
+          <t>mainForm_input36.Text</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>makeButton_37</t>
+          <t>mainForm_input37.Text</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>makeButton_38</t>
+          <t>mainForm_input38.Text</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>makeButton_39</t>
+          <t>mainForm_input39.Text</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>makeButton_40</t>
+          <t>mainForm_input40.Text</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>makeButton_41</t>
+          <t>mainForm_input41.Text</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>makeButton_42</t>
+          <t>mainForm_input42.Text</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>makeButton_43</t>
+          <t>mainForm_input43.Text</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>makeButton_44</t>
+          <t>mainForm_input44.Text</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>makeButton_45</t>
+          <t>mainForm_input45.Text</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>makeButton_46</t>
+          <t>mainForm_input46.Text</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>makeButton_47</t>
+          <t>mainForm_input47.Text</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>makeButton_48</t>
+          <t>mainForm_input48.Text</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>makeButton_49</t>
+          <t>mainForm_input49.Text</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>makeButton_50</t>
+          <t>mainForm_input50.Text</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>makeButton_51</t>
+          <t>mainForm_input51.Text</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>makeButton_52</t>
+          <t>mainForm_input52.Text</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>makeButton_53</t>
+          <t>mainForm_input53.Text</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>makeButton_54</t>
+          <t>mainForm_input54.Text</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>makeButton_55</t>
+          <t>mainForm_input55.Text</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>makeButton_56</t>
+          <t>mainForm_input56.Text</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>makeButton_57</t>
+          <t>mainForm_input57.Text</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>makeButton_58</t>
+          <t>mainForm_input58.Text</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>makeButton_59</t>
+          <t>mainForm_input59.Text</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>makeButton_60</t>
+          <t>mainForm_input60.Text</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>makeButton_61</t>
+          <t>mainForm_input61.Text</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>makeButton_62</t>
+          <t>mainForm_input62.Text</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>makeButton_63</t>
+          <t>mainForm_input63.Text</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>makeButton_64</t>
+          <t>mainForm_input64.Text</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>makeButton_65</t>
+          <t>mainForm_input65.Text</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>makeButton_66</t>
+          <t>mainForm_input66.Text</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>makeButton_67</t>
+          <t>mainForm_input67.Text</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>makeButton_68</t>
+          <t>mainForm_input68.Text</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>makeButton_69</t>
+          <t>mainForm_input69.Text</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>makeButton_70</t>
+          <t>mainForm_input70.Text</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>makeButton_71</t>
+          <t>mainForm_input71.Text</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>makeButton_72</t>
+          <t>mainForm_input72.Text</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>makeButton_73</t>
+          <t>mainForm_input73.Text</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>makeButton_74</t>
+          <t>mainForm_input74.Text</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>makeButton_75</t>
+          <t>mainForm_input75.Text</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>makeButton_76</t>
+          <t>mainForm_input76.Text</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>makeButton_77</t>
+          <t>mainForm_input77.Text</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>makeButton_78</t>
+          <t>mainForm_input78.Text</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>makeButton_79</t>
+          <t>mainForm_input79.Text</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>makeButton_80</t>
+          <t>mainForm_input80.Text</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>makeButton_81</t>
+          <t>mainForm_input81.Text</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>makeButton_82</t>
+          <t>mainForm_input82.Text</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>makeButton_83</t>
+          <t>mainForm_input83.Text</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>makeButton_84</t>
+          <t>mainForm_input84.Text</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>makeButton_85</t>
+          <t>mainForm_input85.Text</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>makeButton_86</t>
+          <t>mainForm_input86.Text</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>makeButton_87</t>
+          <t>mainForm_input87.Text</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>makeButton_88</t>
+          <t>mainForm_input88.Text</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>makeButton_89</t>
+          <t>mainForm_input89.Text</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>makeButton_90</t>
+          <t>mainForm_input90.Text</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>makeButton_91</t>
+          <t>mainForm_input91.Text</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>makeButton_92</t>
+          <t>mainForm_input92.Text</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>makeButton_93</t>
+          <t>mainForm_input93.Text</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>makeButton_94</t>
+          <t>mainForm_input94.Text</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>makeButton_95</t>
+          <t>mainForm_input95.Text</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>makeButton_96</t>
+          <t>mainForm_input96.Text</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>makeButton_97</t>
+          <t>mainForm_input97.Text</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>makeButton_98</t>
+          <t>mainForm_input98.Text</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>makeButton_99</t>
+          <t>mainForm_input99.Text</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>makeButton_100</t>
+          <t>mainForm_input100.Text</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>makeButton_101</t>
+          <t>mainForm_input101.Text</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>makeButton_102</t>
+          <t>mainForm_input102.Text</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>makeButton_103</t>
+          <t>mainForm_input103.Text</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>makeButton_104</t>
+          <t>mainForm_input104.Text</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>makeButton_105</t>
+          <t>mainForm_input105.Text</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>makeButton_106</t>
+          <t>mainForm_input106.Text</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>makeButton_107</t>
+          <t>mainForm_input107.Text</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>makeButton_108</t>
+          <t>mainForm_input108.Text</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>makeButton_109</t>
+          <t>mainForm_input109.Text</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>makeButton_110</t>
+          <t>mainForm_input110.Text</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>makeButton_111</t>
+          <t>mainForm_input111.Text</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>makeButton_112</t>
+          <t>mainForm_input112.Text</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>makeButton_113</t>
+          <t>mainForm_input113.Text</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>makeButton_114</t>
+          <t>mainForm_input114.Text</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>makeButton_115</t>
+          <t>mainForm_input115.Text</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>makeButton_116</t>
+          <t>mainForm_input116.Text</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>makeButton_117</t>
+          <t>mainForm_input117.Text</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>makeButton_118</t>
+          <t>mainForm_input118.Text</t>
         </is>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>makeButton_119</t>
+          <t>mainForm_input119.Text</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>makeButton_120</t>
+          <t>mainForm_input120.Text</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>makeButton_121</t>
+          <t>mainForm_input121.Text</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>makeButton_122</t>
+          <t>mainForm_input122.Text</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>makeButton_123</t>
+          <t>mainForm_input123.Text</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>makeButton_124</t>
+          <t>mainForm_input124.Text</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>makeButton_125</t>
+          <t>mainForm_input125.Text</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>makeButton_126</t>
+          <t>mainForm_input126.Text</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>makeButton_127</t>
+          <t>mainForm_input127.Text</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>makeButton_128</t>
+          <t>mainForm_input128.Text</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>makeButton_129</t>
+          <t>mainForm_input129.Text</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>makeButton_130</t>
+          <t>mainForm_input130.Text</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>makeButton_131</t>
+          <t>mainForm_input131.Text</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>makeButton_132</t>
+          <t>mainForm_input132.Text</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>makeButton_133</t>
+          <t>mainForm_input133.Text</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>makeButton_134</t>
+          <t>mainForm_input134.Text</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>makeButton_135</t>
+          <t>mainForm_input135.Text</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>makeButton_136</t>
+          <t>mainForm_input136.Text</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>makeButton_137</t>
+          <t>mainForm_input137.Text</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>makeButton_138</t>
+          <t>mainForm_input138.Text</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>makeButton_139</t>
+          <t>mainForm_input139.Text</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>makeButton_140</t>
+          <t>mainForm_input140.Text</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>makeButton_141</t>
+          <t>mainForm_input141.Text</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>makeButton_142</t>
+          <t>mainForm_input142.Text</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>makeButton_143</t>
+          <t>mainForm_input143.Text</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>makeButton_144</t>
+          <t>mainForm_input144.Text</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>makeButton_145</t>
+          <t>mainForm_input145.Text</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>makeButton_146</t>
+          <t>mainForm_input146.Text</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>makeButton_147</t>
+          <t>mainForm_input147.Text</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>makeButton_148</t>
+          <t>mainForm_input148.Text</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>makeButton_149</t>
+          <t>mainForm_input149.Text</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,8507 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>makeButton_150</t>
+          <t>mainForm_input150.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="F151" t="n">
+        <v>151</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>mainForm_input151.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="F152" t="n">
+        <v>152</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>mainForm_input152.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="F153" t="n">
+        <v>153</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>mainForm_input153.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="F154" t="n">
+        <v>154</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>mainForm_input154.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="F155" t="n">
+        <v>155</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>mainForm_input155.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="F156" t="n">
+        <v>156</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>mainForm_input156.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="F157" t="n">
+        <v>157</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>mainForm_input157.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="F158" t="n">
+        <v>158</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>mainForm_input158.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="F159" t="n">
+        <v>159</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>mainForm_input159.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="F160" t="n">
+        <v>160</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>mainForm_input160.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="F161" t="n">
+        <v>161</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>mainForm_input161.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="F162" t="n">
+        <v>162</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>mainForm_input162.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="F163" t="n">
+        <v>163</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>mainForm_input163.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="F164" t="n">
+        <v>164</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>mainForm_input164.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="F165" t="n">
+        <v>165</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>mainForm_input165.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="F166" t="n">
+        <v>166</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>mainForm_input166.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="F167" t="n">
+        <v>167</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>mainForm_input167.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="F168" t="n">
+        <v>168</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>mainForm_input168.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="F169" t="n">
+        <v>169</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>mainForm_input169.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="F170" t="n">
+        <v>170</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>mainForm_input170.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="F171" t="n">
+        <v>171</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>mainForm_input171.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="F172" t="n">
+        <v>172</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>mainForm_input172.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="F173" t="n">
+        <v>173</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>mainForm_input173.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="F174" t="n">
+        <v>174</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>mainForm_input174.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="F175" t="n">
+        <v>175</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>mainForm_input175.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="F176" t="n">
+        <v>176</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>mainForm_input176.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="F177" t="n">
+        <v>177</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>mainForm_input177.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="F178" t="n">
+        <v>178</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>mainForm_input178.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="F179" t="n">
+        <v>179</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>mainForm_input179.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="F180" t="n">
+        <v>180</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>mainForm_input180.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="F181" t="n">
+        <v>181</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>mainForm_input181.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="F182" t="n">
+        <v>182</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>mainForm_input182.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="F183" t="n">
+        <v>183</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>mainForm_input183.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="F184" t="n">
+        <v>184</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>mainForm_input184.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="F185" t="n">
+        <v>185</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>mainForm_input185.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="F186" t="n">
+        <v>186</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>mainForm_input186.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="F187" t="n">
+        <v>187</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>mainForm_input187.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="F188" t="n">
+        <v>188</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>mainForm_input188.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="F189" t="n">
+        <v>189</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>mainForm_input189.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="F190" t="n">
+        <v>190</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>mainForm_input190.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="F191" t="n">
+        <v>191</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>mainForm_input191.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="F192" t="n">
+        <v>192</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>mainForm_input192.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="F193" t="n">
+        <v>193</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>mainForm_input193.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="F194" t="n">
+        <v>194</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>mainForm_input194.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="F195" t="n">
+        <v>195</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>mainForm_input195.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="F196" t="n">
+        <v>196</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>mainForm_input196.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="F197" t="n">
+        <v>197</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>mainForm_input197.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="F198" t="n">
+        <v>198</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>mainForm_input198.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="F199" t="n">
+        <v>199</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>mainForm_input199.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="F200" t="n">
+        <v>200</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>mainForm_input200.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="F201" t="n">
+        <v>201</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>mainForm_input201.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="F202" t="n">
+        <v>202</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>mainForm_input202.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="F203" t="n">
+        <v>203</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>mainForm_input203.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="F204" t="n">
+        <v>204</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>mainForm_input204.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="F205" t="n">
+        <v>205</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>mainForm_input205.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="F206" t="n">
+        <v>206</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>mainForm_input206.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="F207" t="n">
+        <v>207</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>mainForm_input207.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="F208" t="n">
+        <v>208</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>mainForm_input208.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="F209" t="n">
+        <v>209</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>mainForm_input209.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="F210" t="n">
+        <v>210</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>mainForm_input210.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="F211" t="n">
+        <v>211</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>mainForm_input211.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="F212" t="n">
+        <v>212</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>mainForm_input212.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="F213" t="n">
+        <v>213</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>mainForm_input213.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="F214" t="n">
+        <v>214</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>mainForm_input214.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="F215" t="n">
+        <v>215</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>mainForm_input215.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="F216" t="n">
+        <v>216</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>mainForm_input216.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="F217" t="n">
+        <v>217</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>mainForm_input217.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="F218" t="n">
+        <v>218</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>mainForm_input218.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="F219" t="n">
+        <v>219</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>mainForm_input219.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="F220" t="n">
+        <v>220</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>mainForm_input220.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="F221" t="n">
+        <v>221</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>mainForm_input221.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="F222" t="n">
+        <v>222</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>mainForm_input222.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="F223" t="n">
+        <v>223</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>mainForm_input223.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="F224" t="n">
+        <v>224</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>mainForm_input224.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="F225" t="n">
+        <v>225</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>mainForm_input225.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="F226" t="n">
+        <v>226</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>mainForm_input226.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="F227" t="n">
+        <v>227</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>mainForm_input227.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="F228" t="n">
+        <v>228</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>mainForm_input228.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="F229" t="n">
+        <v>229</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>mainForm_input229.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="F230" t="n">
+        <v>230</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>mainForm_input230.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="F231" t="n">
+        <v>231</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>mainForm_input231.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="F232" t="n">
+        <v>232</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>mainForm_input232.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="F233" t="n">
+        <v>233</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>mainForm_input233.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="F234" t="n">
+        <v>234</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>mainForm_input234.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="F235" t="n">
+        <v>235</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>mainForm_input235.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="F236" t="n">
+        <v>236</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>mainForm_input236.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="F237" t="n">
+        <v>237</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>mainForm_input237.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="F238" t="n">
+        <v>238</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>mainForm_input238.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="F239" t="n">
+        <v>239</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>mainForm_input239.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="F240" t="n">
+        <v>240</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>mainForm_input240.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="F241" t="n">
+        <v>241</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>mainForm_input241.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="F242" t="n">
+        <v>242</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>mainForm_input242.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="F243" t="n">
+        <v>243</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>mainForm_input243.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="F244" t="n">
+        <v>244</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>mainForm_input244.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="F245" t="n">
+        <v>245</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>mainForm_input245.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="F246" t="n">
+        <v>246</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>mainForm_input246.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="F247" t="n">
+        <v>247</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>mainForm_input247.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="F248" t="n">
+        <v>248</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>mainForm_input248.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="F249" t="n">
+        <v>249</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>mainForm_input249.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="F250" t="n">
+        <v>250</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>mainForm_input250.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="F251" t="n">
+        <v>251</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>mainForm_input251.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="F252" t="n">
+        <v>252</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>mainForm_input252.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="F253" t="n">
+        <v>253</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>mainForm_input253.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="F254" t="n">
+        <v>254</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>mainForm_input254.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="F255" t="n">
+        <v>255</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>mainForm_input255.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="F256" t="n">
+        <v>256</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>mainForm_input256.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="F257" t="n">
+        <v>257</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>mainForm_input257.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="F258" t="n">
+        <v>258</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>mainForm_input258.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="F259" t="n">
+        <v>259</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>mainForm_input259.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="F260" t="n">
+        <v>260</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>mainForm_input260.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="F261" t="n">
+        <v>261</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>mainForm_input261.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="F262" t="n">
+        <v>262</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>mainForm_input262.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="F263" t="n">
+        <v>263</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>mainForm_input263.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="F264" t="n">
+        <v>264</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>mainForm_input264.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="F265" t="n">
+        <v>265</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>mainForm_input265.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="F266" t="n">
+        <v>266</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>mainForm_input266.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="F267" t="n">
+        <v>267</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>mainForm_input267.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="F268" t="n">
+        <v>268</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>mainForm_input268.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="F269" t="n">
+        <v>269</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>mainForm_input269.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="F270" t="n">
+        <v>270</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>mainForm_input270.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="F271" t="n">
+        <v>271</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>mainForm_input271.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="F272" t="n">
+        <v>272</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>mainForm_input272.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="F273" t="n">
+        <v>273</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>mainForm_input273.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="F274" t="n">
+        <v>274</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>mainForm_input274.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="F275" t="n">
+        <v>275</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>mainForm_input275.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="F276" t="n">
+        <v>276</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>mainForm_input276.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="F277" t="n">
+        <v>277</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>mainForm_input277.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="F278" t="n">
+        <v>278</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>mainForm_input278.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="F279" t="n">
+        <v>279</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>mainForm_input279.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="F280" t="n">
+        <v>280</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>mainForm_input280.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="F281" t="n">
+        <v>281</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>mainForm_input281.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="F282" t="n">
+        <v>282</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>mainForm_input282.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="F283" t="n">
+        <v>283</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>mainForm_input283.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="F284" t="n">
+        <v>284</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>mainForm_input284.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="F285" t="n">
+        <v>285</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>mainForm_input285.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="F286" t="n">
+        <v>286</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>mainForm_input286.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="F287" t="n">
+        <v>287</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>mainForm_input287.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="F288" t="n">
+        <v>288</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>mainForm_input288.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="F289" t="n">
+        <v>289</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>mainForm_input289.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="F290" t="n">
+        <v>290</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>mainForm_input290.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="F291" t="n">
+        <v>291</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>mainForm_input291.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="F292" t="n">
+        <v>292</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>mainForm_input292.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="F293" t="n">
+        <v>293</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>mainForm_input293.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="F294" t="n">
+        <v>294</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>mainForm_input294.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="F295" t="n">
+        <v>295</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>mainForm_input295.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="F296" t="n">
+        <v>296</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>mainForm_input296.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="F297" t="n">
+        <v>297</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>mainForm_input297.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="F298" t="n">
+        <v>298</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>mainForm_input298.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="F299" t="n">
+        <v>299</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>mainForm_input299.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="F300" t="n">
+        <v>300</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>mainForm_input300.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="F301" t="n">
+        <v>301</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>mainForm_input301.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="F302" t="n">
+        <v>302</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>mainForm_input302.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="F303" t="n">
+        <v>303</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>mainForm_input303.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="F304" t="n">
+        <v>304</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>mainForm_input304.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="F305" t="n">
+        <v>305</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>mainForm_input305.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="F306" t="n">
+        <v>306</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>mainForm_input306.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="F307" t="n">
+        <v>307</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>mainForm_input307.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="F308" t="n">
+        <v>308</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>mainForm_input308.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="F309" t="n">
+        <v>309</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>mainForm_input309.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="F310" t="n">
+        <v>310</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>mainForm_input310.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="F311" t="n">
+        <v>311</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>mainForm_input311.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="F312" t="n">
+        <v>312</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>mainForm_input312.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="F313" t="n">
+        <v>313</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>mainForm_input313.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="F314" t="n">
+        <v>314</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>mainForm_input314.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="F315" t="n">
+        <v>315</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>mainForm_input315.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="F316" t="n">
+        <v>316</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>mainForm_input316.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="F317" t="n">
+        <v>317</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>mainForm_input317.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="F318" t="n">
+        <v>318</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>mainForm_input318.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="F319" t="n">
+        <v>319</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>mainForm_input319.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="F320" t="n">
+        <v>320</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>mainForm_input320.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="F321" t="n">
+        <v>321</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>mainForm_input321.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="F322" t="n">
+        <v>322</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>mainForm_input322.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="F323" t="n">
+        <v>323</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>mainForm_input323.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="F324" t="n">
+        <v>324</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>mainForm_input324.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="F325" t="n">
+        <v>325</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>mainForm_input325.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="F326" t="n">
+        <v>326</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>mainForm_input326.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="F327" t="n">
+        <v>327</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>mainForm_input327.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="F328" t="n">
+        <v>328</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>mainForm_input328.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="F329" t="n">
+        <v>329</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>mainForm_input329.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="F330" t="n">
+        <v>330</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>mainForm_input330.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="F331" t="n">
+        <v>331</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>mainForm_input331.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="F332" t="n">
+        <v>332</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>mainForm_input332.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="F333" t="n">
+        <v>333</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>mainForm_input333.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="F334" t="n">
+        <v>334</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>mainForm_input334.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="F335" t="n">
+        <v>335</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>mainForm_input335.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="F336" t="n">
+        <v>336</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>mainForm_input336.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="F337" t="n">
+        <v>337</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>mainForm_input337.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="F338" t="n">
+        <v>338</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>mainForm_input338.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="F339" t="n">
+        <v>339</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>mainForm_input339.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="F340" t="n">
+        <v>340</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>mainForm_input340.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="F341" t="n">
+        <v>341</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>mainForm_input341.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="F342" t="n">
+        <v>342</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>mainForm_input342.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="F343" t="n">
+        <v>343</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>mainForm_input343.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="F344" t="n">
+        <v>344</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>mainForm_input344.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="F345" t="n">
+        <v>345</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>mainForm_input345.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="F346" t="n">
+        <v>346</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>mainForm_input346.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="F347" t="n">
+        <v>347</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>mainForm_input347.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="F348" t="n">
+        <v>348</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>mainForm_input348.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="F349" t="n">
+        <v>349</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>mainForm_input349.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="F350" t="n">
+        <v>350</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>mainForm_input350.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="F351" t="n">
+        <v>351</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>mainForm_input351.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="F352" t="n">
+        <v>352</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>mainForm_input352.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="F353" t="n">
+        <v>353</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>mainForm_input353.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="F354" t="n">
+        <v>354</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>mainForm_input354.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="F355" t="n">
+        <v>355</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>mainForm_input355.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="F356" t="n">
+        <v>356</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>mainForm_input356.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="F357" t="n">
+        <v>357</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>mainForm_input357.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="F358" t="n">
+        <v>358</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>mainForm_input358.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="F359" t="n">
+        <v>359</v>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>mainForm_input359.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="F360" t="n">
+        <v>360</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>mainForm_input360.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="F361" t="n">
+        <v>361</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>mainForm_input361.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="F362" t="n">
+        <v>362</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>mainForm_input362.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="F363" t="n">
+        <v>363</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>mainForm_input363.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="F364" t="n">
+        <v>364</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>mainForm_input364.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="F365" t="n">
+        <v>365</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>mainForm_input365.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="F366" t="n">
+        <v>366</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>mainForm_input366.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="F367" t="n">
+        <v>367</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>mainForm_input367.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="F368" t="n">
+        <v>368</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>mainForm_input368.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="F369" t="n">
+        <v>369</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>mainForm_input369.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="F370" t="n">
+        <v>370</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>mainForm_input370.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="F371" t="n">
+        <v>371</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>mainForm_input371.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="F372" t="n">
+        <v>372</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>mainForm_input372.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="F373" t="n">
+        <v>373</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>mainForm_input373.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="F374" t="n">
+        <v>374</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>mainForm_input374.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="F375" t="n">
+        <v>375</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>mainForm_input375.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="F376" t="n">
+        <v>376</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>mainForm_input376.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="F377" t="n">
+        <v>377</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>mainForm_input377.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="F378" t="n">
+        <v>378</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>mainForm_input378.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="F379" t="n">
+        <v>379</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>mainForm_input379.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="F380" t="n">
+        <v>380</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>mainForm_input380.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="F381" t="n">
+        <v>381</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>mainForm_input381.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="F382" t="n">
+        <v>382</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>mainForm_input382.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="F383" t="n">
+        <v>383</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>mainForm_input383.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="F384" t="n">
+        <v>384</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>mainForm_input384.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="F385" t="n">
+        <v>385</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>mainForm_input385.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="F386" t="n">
+        <v>386</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>mainForm_input386.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="F387" t="n">
+        <v>387</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>mainForm_input387.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="F388" t="n">
+        <v>388</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>mainForm_input388.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="F389" t="n">
+        <v>389</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>mainForm_input389.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="F390" t="n">
+        <v>390</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>mainForm_input390.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="F391" t="n">
+        <v>391</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>mainForm_input391.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="F392" t="n">
+        <v>392</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>mainForm_input392.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="F393" t="n">
+        <v>393</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>mainForm_input393.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="F394" t="n">
+        <v>394</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>mainForm_input394.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="F395" t="n">
+        <v>395</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>mainForm_input395.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="F396" t="n">
+        <v>396</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>mainForm_input396.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="F397" t="n">
+        <v>397</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>mainForm_input397.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="F398" t="n">
+        <v>398</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>mainForm_input398.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="F399" t="n">
+        <v>399</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>mainForm_input399.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="F400" t="n">
+        <v>400</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>mainForm_input400.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="F401" t="n">
+        <v>401</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>mainForm_input401.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="F402" t="n">
+        <v>402</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>mainForm_input402.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="F403" t="n">
+        <v>403</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>mainForm_input403.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="F404" t="n">
+        <v>404</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>mainForm_input404.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="F405" t="n">
+        <v>405</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>mainForm_input405.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="F406" t="n">
+        <v>406</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>mainForm_input406.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="F407" t="n">
+        <v>407</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>mainForm_input407.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="F408" t="n">
+        <v>408</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>mainForm_input408.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="F409" t="n">
+        <v>409</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>mainForm_input409.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="F410" t="n">
+        <v>410</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>mainForm_input410.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="F411" t="n">
+        <v>411</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>mainForm_input411.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="F412" t="n">
+        <v>412</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>mainForm_input412.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="F413" t="n">
+        <v>413</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>mainForm_input413.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="F414" t="n">
+        <v>414</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>mainForm_input414.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="F415" t="n">
+        <v>415</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>mainForm_input415.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="F416" t="n">
+        <v>416</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>mainForm_input416.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="F417" t="n">
+        <v>417</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>mainForm_input417.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="F418" t="n">
+        <v>418</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>mainForm_input418.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="F419" t="n">
+        <v>419</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>mainForm_input419.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="F420" t="n">
+        <v>420</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>mainForm_input420.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="F421" t="n">
+        <v>421</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>mainForm_input421.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="F422" t="n">
+        <v>422</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>mainForm_input422.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="F423" t="n">
+        <v>423</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>mainForm_input423.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="F424" t="n">
+        <v>424</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>mainForm_input424.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="F425" t="n">
+        <v>425</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>mainForm_input425.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="F426" t="n">
+        <v>426</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>mainForm_input426.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="F427" t="n">
+        <v>427</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>mainForm_input427.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="F428" t="n">
+        <v>428</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>mainForm_input428.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="F429" t="n">
+        <v>429</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>mainForm_input429.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="F430" t="n">
+        <v>430</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>mainForm_input430.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="F431" t="n">
+        <v>431</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>mainForm_input431.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="F432" t="n">
+        <v>432</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>mainForm_input432.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="F433" t="n">
+        <v>433</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>mainForm_input433.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="F434" t="n">
+        <v>434</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>mainForm_input434.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="F435" t="n">
+        <v>435</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>mainForm_input435.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="F436" t="n">
+        <v>436</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>mainForm_input436.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="F437" t="n">
+        <v>437</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>mainForm_input437.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="F438" t="n">
+        <v>438</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>mainForm_input438.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="F439" t="n">
+        <v>439</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>mainForm_input439.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="F440" t="n">
+        <v>440</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>mainForm_input440.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="F441" t="n">
+        <v>441</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>mainForm_input441.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="F442" t="n">
+        <v>442</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>mainForm_input442.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="F443" t="n">
+        <v>443</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>mainForm_input443.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="F444" t="n">
+        <v>444</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>mainForm_input444.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="F445" t="n">
+        <v>445</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>mainForm_input445.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="F446" t="n">
+        <v>446</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>mainForm_input446.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="F447" t="n">
+        <v>447</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>mainForm_input447.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="F448" t="n">
+        <v>448</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>mainForm_input448.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="F449" t="n">
+        <v>449</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>mainForm_input449.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="F450" t="n">
+        <v>450</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>mainForm_input450.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="F451" t="n">
+        <v>451</v>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>mainForm_input451.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="F452" t="n">
+        <v>452</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>mainForm_input452.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="F453" t="n">
+        <v>453</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>mainForm_input453.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="F454" t="n">
+        <v>454</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>mainForm_input454.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="F455" t="n">
+        <v>455</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>mainForm_input455.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="F456" t="n">
+        <v>456</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>mainForm_input456.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="F457" t="n">
+        <v>457</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>mainForm_input457.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="F458" t="n">
+        <v>458</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>mainForm_input458.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="F459" t="n">
+        <v>459</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>mainForm_input459.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="F460" t="n">
+        <v>460</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>mainForm_input460.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="F461" t="n">
+        <v>461</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>mainForm_input461.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="F462" t="n">
+        <v>462</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>mainForm_input462.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="F463" t="n">
+        <v>463</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>mainForm_input463.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="F464" t="n">
+        <v>464</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>mainForm_input464.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="F465" t="n">
+        <v>465</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>mainForm_input465.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="F466" t="n">
+        <v>466</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>mainForm_input466.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="F467" t="n">
+        <v>467</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>mainForm_input467.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="F468" t="n">
+        <v>468</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>mainForm_input468.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="F469" t="n">
+        <v>469</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>mainForm_input469.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="F470" t="n">
+        <v>470</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>mainForm_input470.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="F471" t="n">
+        <v>471</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>mainForm_input471.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="F472" t="n">
+        <v>472</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>mainForm_input472.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="F473" t="n">
+        <v>473</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>mainForm_input473.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="F474" t="n">
+        <v>474</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>mainForm_input474.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="F475" t="n">
+        <v>475</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>mainForm_input475.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="F476" t="n">
+        <v>476</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>mainForm_input476.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="F477" t="n">
+        <v>477</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>mainForm_input477.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="F478" t="n">
+        <v>478</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>mainForm_input478.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="F479" t="n">
+        <v>479</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>mainForm_input479.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="F480" t="n">
+        <v>480</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>mainForm_input480.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="F481" t="n">
+        <v>481</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>mainForm_input481.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="F482" t="n">
+        <v>482</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>mainForm_input482.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="F483" t="n">
+        <v>483</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>mainForm_input483.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="F484" t="n">
+        <v>484</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>mainForm_input484.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="F485" t="n">
+        <v>485</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>mainForm_input485.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="F486" t="n">
+        <v>486</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>mainForm_input486.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="F487" t="n">
+        <v>487</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>mainForm_input487.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="F488" t="n">
+        <v>488</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>mainForm_input488.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="F489" t="n">
+        <v>489</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>mainForm_input489.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="F490" t="n">
+        <v>490</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>mainForm_input490.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="F491" t="n">
+        <v>491</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>mainForm_input491.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="F492" t="n">
+        <v>492</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>mainForm_input492.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="F493" t="n">
+        <v>493</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>mainForm_input493.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="F494" t="n">
+        <v>494</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>mainForm_input494.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="F495" t="n">
+        <v>495</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>mainForm_input495.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="F496" t="n">
+        <v>496</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>mainForm_input496.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="F497" t="n">
+        <v>497</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>mainForm_input497.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="F498" t="n">
+        <v>498</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>mainForm_input498.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="F499" t="n">
+        <v>499</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>mainForm_input499.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="F500" t="n">
+        <v>500</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>mainForm_input500.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="F501" t="n">
+        <v>501</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>mainForm_input501.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="F502" t="n">
+        <v>502</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>mainForm_input502.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="F503" t="n">
+        <v>503</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>mainForm_input503.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="F504" t="n">
+        <v>504</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>mainForm_input504.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="F505" t="n">
+        <v>505</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>mainForm_input505.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="F506" t="n">
+        <v>506</v>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>mainForm_input506.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="F507" t="n">
+        <v>507</v>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>mainForm_input507.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="F508" t="n">
+        <v>508</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>mainForm_input508.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="F509" t="n">
+        <v>509</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>mainForm_input509.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="F510" t="n">
+        <v>510</v>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>mainForm_input510.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="F511" t="n">
+        <v>511</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>mainForm_input511.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="F512" t="n">
+        <v>512</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>mainForm_input512.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="F513" t="n">
+        <v>513</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>mainForm_input513.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="F514" t="n">
+        <v>514</v>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>mainForm_input514.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="F515" t="n">
+        <v>515</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>mainForm_input515.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="F516" t="n">
+        <v>516</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>mainForm_input516.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="F517" t="n">
+        <v>517</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>mainForm_input517.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="F518" t="n">
+        <v>518</v>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>mainForm_input518.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="F519" t="n">
+        <v>519</v>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>mainForm_input519.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="F520" t="n">
+        <v>520</v>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>mainForm_input520.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="F521" t="n">
+        <v>521</v>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>mainForm_input521.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="F522" t="n">
+        <v>522</v>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>mainForm_input522.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="F523" t="n">
+        <v>523</v>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>mainForm_input523.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="F524" t="n">
+        <v>524</v>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>mainForm_input524.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="F525" t="n">
+        <v>525</v>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>mainForm_input525.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="F526" t="n">
+        <v>526</v>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>mainForm_input526.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="F527" t="n">
+        <v>527</v>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>mainForm_input527.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="F528" t="n">
+        <v>528</v>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>mainForm_input528.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="F529" t="n">
+        <v>529</v>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>mainForm_input529.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="F530" t="n">
+        <v>530</v>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>mainForm_input530.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="F531" t="n">
+        <v>531</v>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>mainForm_input531.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="F532" t="n">
+        <v>532</v>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>mainForm_input532.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="F533" t="n">
+        <v>533</v>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>mainForm_input533.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="F534" t="n">
+        <v>534</v>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>mainForm_input534.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="F535" t="n">
+        <v>535</v>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>mainForm_input535.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="F536" t="n">
+        <v>536</v>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>mainForm_input536.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="F537" t="n">
+        <v>537</v>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>mainForm_input537.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="F538" t="n">
+        <v>538</v>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>mainForm_input538.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="F539" t="n">
+        <v>539</v>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>mainForm_input539.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="F540" t="n">
+        <v>540</v>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>mainForm_input540.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="F541" t="n">
+        <v>541</v>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>mainForm_input541.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="F542" t="n">
+        <v>542</v>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>mainForm_input542.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="F543" t="n">
+        <v>543</v>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>mainForm_input543.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="F544" t="n">
+        <v>544</v>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>mainForm_input544.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="F545" t="n">
+        <v>545</v>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>mainForm_input545.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="F546" t="n">
+        <v>546</v>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>mainForm_input546.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="F547" t="n">
+        <v>547</v>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>mainForm_input547.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="F548" t="n">
+        <v>548</v>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>mainForm_input548.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="F549" t="n">
+        <v>549</v>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>mainForm_input549.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="F550" t="n">
+        <v>550</v>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>mainForm_input550.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="F551" t="n">
+        <v>551</v>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>mainForm_input551.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="F552" t="n">
+        <v>552</v>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>mainForm_input552.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="F553" t="n">
+        <v>553</v>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>mainForm_input553.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="F554" t="n">
+        <v>554</v>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>mainForm_input554.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="F555" t="n">
+        <v>555</v>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>mainForm_input555.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="F556" t="n">
+        <v>556</v>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>mainForm_input556.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="F557" t="n">
+        <v>557</v>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>mainForm_input557.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="F558" t="n">
+        <v>558</v>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>mainForm_input558.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="F559" t="n">
+        <v>559</v>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>mainForm_input559.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="F560" t="n">
+        <v>560</v>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>mainForm_input560.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="F561" t="n">
+        <v>561</v>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>mainForm_input561.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="F562" t="n">
+        <v>562</v>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>mainForm_input562.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="F563" t="n">
+        <v>563</v>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>mainForm_input563.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="F564" t="n">
+        <v>564</v>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>mainForm_input564.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="F565" t="n">
+        <v>565</v>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>mainForm_input565.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="F566" t="n">
+        <v>566</v>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>mainForm_input566.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="F567" t="n">
+        <v>567</v>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>mainForm_input567.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="F568" t="n">
+        <v>568</v>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>mainForm_input568.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="F569" t="n">
+        <v>569</v>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>mainForm_input569.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="F570" t="n">
+        <v>570</v>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>mainForm_input570.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="F571" t="n">
+        <v>571</v>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>mainForm_input571.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="F572" t="n">
+        <v>572</v>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>mainForm_input572.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="F573" t="n">
+        <v>573</v>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>mainForm_input573.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="F574" t="n">
+        <v>574</v>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>mainForm_input574.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="F575" t="n">
+        <v>575</v>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>mainForm_input575.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="F576" t="n">
+        <v>576</v>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>mainForm_input576.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="F577" t="n">
+        <v>577</v>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>mainForm_input577.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="F578" t="n">
+        <v>578</v>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>mainForm_input578.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="F579" t="n">
+        <v>579</v>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>mainForm_input579.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="F580" t="n">
+        <v>580</v>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>mainForm_input580.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="F581" t="n">
+        <v>581</v>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>mainForm_input581.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="F582" t="n">
+        <v>582</v>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>mainForm_input582.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="F583" t="n">
+        <v>583</v>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>mainForm_input583.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="F584" t="n">
+        <v>584</v>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>mainForm_input584.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="F585" t="n">
+        <v>585</v>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>mainForm_input585.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="F586" t="n">
+        <v>586</v>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>mainForm_input586.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="F587" t="n">
+        <v>587</v>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>mainForm_input587.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="F588" t="n">
+        <v>588</v>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>mainForm_input588.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="F589" t="n">
+        <v>589</v>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>mainForm_input589.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="F590" t="n">
+        <v>590</v>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>mainForm_input590.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="F591" t="n">
+        <v>591</v>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>mainForm_input591.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="F592" t="n">
+        <v>592</v>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>mainForm_input592.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="F593" t="n">
+        <v>593</v>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>mainForm_input593.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="F594" t="n">
+        <v>594</v>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>mainForm_input594.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="F595" t="n">
+        <v>595</v>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>mainForm_input595.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="F596" t="n">
+        <v>596</v>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>mainForm_input596.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="F597" t="n">
+        <v>597</v>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>mainForm_input597.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="F598" t="n">
+        <v>598</v>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>mainForm_input598.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="F599" t="n">
+        <v>599</v>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>mainForm_input599.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="F600" t="n">
+        <v>600</v>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>mainForm_input600.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="F601" t="n">
+        <v>601</v>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>mainForm_input601.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="F602" t="n">
+        <v>602</v>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>mainForm_input602.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="F603" t="n">
+        <v>603</v>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>mainForm_input603.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="F604" t="n">
+        <v>604</v>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>mainForm_input604.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="F605" t="n">
+        <v>605</v>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>mainForm_input605.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="F606" t="n">
+        <v>606</v>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>mainForm_input606.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="F607" t="n">
+        <v>607</v>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>mainForm_input607.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="F608" t="n">
+        <v>608</v>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>mainForm_input608.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="F609" t="n">
+        <v>609</v>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>mainForm_input609.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="F610" t="n">
+        <v>610</v>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>mainForm_input610.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="F611" t="n">
+        <v>611</v>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>mainForm_input611.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="F612" t="n">
+        <v>612</v>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>mainForm_input612.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="F613" t="n">
+        <v>613</v>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>mainForm_input613.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="F614" t="n">
+        <v>614</v>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>mainForm_input614.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="F615" t="n">
+        <v>615</v>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>mainForm_input615.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="F616" t="n">
+        <v>616</v>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>mainForm_input616.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="F617" t="n">
+        <v>617</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>mainForm_input617.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="F618" t="n">
+        <v>618</v>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>mainForm_input618.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="F619" t="n">
+        <v>619</v>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>mainForm_input619.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="F620" t="n">
+        <v>620</v>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>mainForm_input620.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="F621" t="n">
+        <v>621</v>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>mainForm_input621.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="F622" t="n">
+        <v>622</v>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>mainForm_input622.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="F623" t="n">
+        <v>623</v>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>mainForm_input623.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="F624" t="n">
+        <v>624</v>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>mainForm_input624.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="F625" t="n">
+        <v>625</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>mainForm_input625.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="F626" t="n">
+        <v>626</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>mainForm_input626.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="F627" t="n">
+        <v>627</v>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>mainForm_input627.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="F628" t="n">
+        <v>628</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>mainForm_input628.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="F629" t="n">
+        <v>629</v>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>mainForm_input629.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="F630" t="n">
+        <v>630</v>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>mainForm_input630.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="F631" t="n">
+        <v>631</v>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>mainForm_input631.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="F632" t="n">
+        <v>632</v>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>mainForm_input632.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="F633" t="n">
+        <v>633</v>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>mainForm_input633.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="F634" t="n">
+        <v>634</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>mainForm_input634.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="F635" t="n">
+        <v>635</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>mainForm_input635.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="F636" t="n">
+        <v>636</v>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>mainForm_input636.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="F637" t="n">
+        <v>637</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>mainForm_input637.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="F638" t="n">
+        <v>638</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>mainForm_input638.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="F639" t="n">
+        <v>639</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>mainForm_input639.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="F640" t="n">
+        <v>640</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>mainForm_input640.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="F641" t="n">
+        <v>641</v>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>mainForm_input641.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="F642" t="n">
+        <v>642</v>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>mainForm_input642.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="F643" t="n">
+        <v>643</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>mainForm_input643.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="F644" t="n">
+        <v>644</v>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>mainForm_input644.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="F645" t="n">
+        <v>645</v>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>mainForm_input645.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="F646" t="n">
+        <v>646</v>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>mainForm_input646.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="F647" t="n">
+        <v>647</v>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>mainForm_input647.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="F648" t="n">
+        <v>648</v>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>mainForm_input648.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="F649" t="n">
+        <v>649</v>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>mainForm_input649.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="F650" t="n">
+        <v>650</v>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>mainForm_input650.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="F651" t="n">
+        <v>651</v>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>mainForm_input651.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="F652" t="n">
+        <v>652</v>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>mainForm_input652.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="F653" t="n">
+        <v>653</v>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>mainForm_input653.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="F654" t="n">
+        <v>654</v>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>mainForm_input654.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="F655" t="n">
+        <v>655</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>mainForm_input655.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="F656" t="n">
+        <v>656</v>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>mainForm_input656.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="F657" t="n">
+        <v>657</v>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>mainForm_input657.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="F658" t="n">
+        <v>658</v>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>mainForm_input658.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="F659" t="n">
+        <v>659</v>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>mainForm_input659.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="F660" t="n">
+        <v>660</v>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>mainForm_input660.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="F661" t="n">
+        <v>661</v>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>mainForm_input661.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="F662" t="n">
+        <v>662</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>mainForm_input662.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="F663" t="n">
+        <v>663</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>mainForm_input663.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="F664" t="n">
+        <v>664</v>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>mainForm_input664.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="F665" t="n">
+        <v>665</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>mainForm_input665.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="F666" t="n">
+        <v>666</v>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>mainForm_input666.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="F667" t="n">
+        <v>667</v>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>mainForm_input667.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="F668" t="n">
+        <v>668</v>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>mainForm_input668.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="F669" t="n">
+        <v>669</v>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>mainForm_input669.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="F670" t="n">
+        <v>670</v>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>mainForm_input670.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="F671" t="n">
+        <v>671</v>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>mainForm_input671.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="F672" t="n">
+        <v>672</v>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>mainForm_input672.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="F673" t="n">
+        <v>673</v>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>mainForm_input673.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="F674" t="n">
+        <v>674</v>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>mainForm_input674.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="F675" t="n">
+        <v>675</v>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>mainForm_input675.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="F676" t="n">
+        <v>676</v>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>mainForm_input676.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="F677" t="n">
+        <v>677</v>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>mainForm_input677.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="F678" t="n">
+        <v>678</v>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>mainForm_input678.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="F679" t="n">
+        <v>679</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>mainForm_input679.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="F680" t="n">
+        <v>680</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>mainForm_input680.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="F681" t="n">
+        <v>681</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>mainForm_input681.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="F682" t="n">
+        <v>682</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>mainForm_input682.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="F683" t="n">
+        <v>683</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>mainForm_input683.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="F684" t="n">
+        <v>684</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>mainForm_input684.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="F685" t="n">
+        <v>685</v>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>mainForm_input685.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="F686" t="n">
+        <v>686</v>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>mainForm_input686.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="F687" t="n">
+        <v>687</v>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>mainForm_input687.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="F688" t="n">
+        <v>688</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>mainForm_input688.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="F689" t="n">
+        <v>689</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>mainForm_input689.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="F690" t="n">
+        <v>690</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>mainForm_input690.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="F691" t="n">
+        <v>691</v>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>mainForm_input691.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="F692" t="n">
+        <v>692</v>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>mainForm_input692.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="F693" t="n">
+        <v>693</v>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>mainForm_input693.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="F694" t="n">
+        <v>694</v>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>mainForm_input694.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="F695" t="n">
+        <v>695</v>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>mainForm_input695.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="F696" t="n">
+        <v>696</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>mainForm_input696.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="F697" t="n">
+        <v>697</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>mainForm_input697.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="F698" t="n">
+        <v>698</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>mainForm_input698.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="F699" t="n">
+        <v>699</v>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>mainForm_input699.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="F700" t="n">
+        <v>700</v>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>mainForm_input700.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="F701" t="n">
+        <v>701</v>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>mainForm_input701.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="F702" t="n">
+        <v>702</v>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>mainForm_input702.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="F703" t="n">
+        <v>703</v>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>mainForm_input703.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="F704" t="n">
+        <v>704</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>mainForm_input704.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="F705" t="n">
+        <v>705</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>mainForm_input705.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="F706" t="n">
+        <v>706</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>mainForm_input706.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="F707" t="n">
+        <v>707</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>mainForm_input707.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="F708" t="n">
+        <v>708</v>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>mainForm_input708.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="F709" t="n">
+        <v>709</v>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>mainForm_input709.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="F710" t="n">
+        <v>710</v>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>mainForm_input710.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="F711" t="n">
+        <v>711</v>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>mainForm_input711.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="F712" t="n">
+        <v>712</v>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>mainForm_input712.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="F713" t="n">
+        <v>713</v>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>mainForm_input713.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="F714" t="n">
+        <v>714</v>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>mainForm_input714.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="F715" t="n">
+        <v>715</v>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>mainForm_input715.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="F716" t="n">
+        <v>716</v>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>mainForm_input716.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="F717" t="n">
+        <v>717</v>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>mainForm_input717.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="F718" t="n">
+        <v>718</v>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>mainForm_input718.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="F719" t="n">
+        <v>719</v>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>mainForm_input719.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="F720" t="n">
+        <v>720</v>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>mainForm_input720.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="F721" t="n">
+        <v>721</v>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>mainForm_input721.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="F722" t="n">
+        <v>722</v>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>mainForm_input722.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="F723" t="n">
+        <v>723</v>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>mainForm_input723.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="F724" t="n">
+        <v>724</v>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>mainForm_input724.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="F725" t="n">
+        <v>725</v>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>mainForm_input725.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="F726" t="n">
+        <v>726</v>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>mainForm_input726.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="F727" t="n">
+        <v>727</v>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>mainForm_input727.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="F728" t="n">
+        <v>728</v>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>mainForm_input728.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="F729" t="n">
+        <v>729</v>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>mainForm_input729.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="F730" t="n">
+        <v>730</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>mainForm_input730.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="F731" t="n">
+        <v>731</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>mainForm_input731.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="F732" t="n">
+        <v>732</v>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>mainForm_input732.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="F733" t="n">
+        <v>733</v>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>mainForm_input733.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="F734" t="n">
+        <v>734</v>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>mainForm_input734.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="F735" t="n">
+        <v>735</v>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>mainForm_input735.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="F736" t="n">
+        <v>736</v>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>mainForm_input736.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="F737" t="n">
+        <v>737</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>mainForm_input737.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="F738" t="n">
+        <v>738</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>mainForm_input738.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="F739" t="n">
+        <v>739</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>mainForm_input739.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="F740" t="n">
+        <v>740</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>mainForm_input740.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="F741" t="n">
+        <v>741</v>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>mainForm_input741.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="F742" t="n">
+        <v>742</v>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>mainForm_input742.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="F743" t="n">
+        <v>743</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>mainForm_input743.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="F744" t="n">
+        <v>744</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>mainForm_input744.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="F745" t="n">
+        <v>745</v>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>mainForm_input745.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="F746" t="n">
+        <v>746</v>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>mainForm_input746.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="F747" t="n">
+        <v>747</v>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>mainForm_input747.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="F748" t="n">
+        <v>748</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>mainForm_input748.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="F749" t="n">
+        <v>749</v>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>mainForm_input749.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="F750" t="n">
+        <v>750</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>mainForm_input750.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="F751" t="n">
+        <v>751</v>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>mainForm_input751.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="F752" t="n">
+        <v>752</v>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>mainForm_input752.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="F753" t="n">
+        <v>753</v>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>mainForm_input753.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="F754" t="n">
+        <v>754</v>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>mainForm_input754.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="F755" t="n">
+        <v>755</v>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>mainForm_input755.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="F756" t="n">
+        <v>756</v>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>mainForm_input756.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="F757" t="n">
+        <v>757</v>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>mainForm_input757.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="F758" t="n">
+        <v>758</v>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>mainForm_input758.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="F759" t="n">
+        <v>759</v>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>mainForm_input759.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="F760" t="n">
+        <v>760</v>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>mainForm_input760.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="F761" t="n">
+        <v>761</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>mainForm_input761.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="F762" t="n">
+        <v>762</v>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>mainForm_input762.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="F763" t="n">
+        <v>763</v>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>mainForm_input763.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="F764" t="n">
+        <v>764</v>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>mainForm_input764.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="F765" t="n">
+        <v>765</v>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>mainForm_input765.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="F766" t="n">
+        <v>766</v>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>mainForm_input766.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="F767" t="n">
+        <v>767</v>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>mainForm_input767.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="F768" t="n">
+        <v>768</v>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>mainForm_input768.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="F769" t="n">
+        <v>769</v>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>mainForm_input769.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="F770" t="n">
+        <v>770</v>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>mainForm_input770.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="F771" t="n">
+        <v>771</v>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>mainForm_input771.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="F772" t="n">
+        <v>772</v>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>mainForm_input772.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="F773" t="n">
+        <v>773</v>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>mainForm_input773.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="F774" t="n">
+        <v>774</v>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>mainForm_input774.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="F775" t="n">
+        <v>775</v>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>mainForm_input775.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="F776" t="n">
+        <v>776</v>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>mainForm_input776.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="F777" t="n">
+        <v>777</v>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>mainForm_input777.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="F778" t="n">
+        <v>778</v>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>mainForm_input778.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="F779" t="n">
+        <v>779</v>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>mainForm_input779.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="F780" t="n">
+        <v>780</v>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>mainForm_input780.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="F781" t="n">
+        <v>781</v>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>mainForm_input781.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="F782" t="n">
+        <v>782</v>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>mainForm_input782.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="F783" t="n">
+        <v>783</v>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>mainForm_input783.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="F784" t="n">
+        <v>784</v>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>mainForm_input784.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="F785" t="n">
+        <v>785</v>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>mainForm_input785.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="F786" t="n">
+        <v>786</v>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>mainForm_input786.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="F787" t="n">
+        <v>787</v>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>mainForm_input787.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="F788" t="n">
+        <v>788</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>mainForm_input788.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="F789" t="n">
+        <v>789</v>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>mainForm_input789.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="F790" t="n">
+        <v>790</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>mainForm_input790.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="F791" t="n">
+        <v>791</v>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>mainForm_input791.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="F792" t="n">
+        <v>792</v>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>mainForm_input792.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="F793" t="n">
+        <v>793</v>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>mainForm_input793.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="F794" t="n">
+        <v>794</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>mainForm_input794.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="F795" t="n">
+        <v>795</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>mainForm_input795.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="F796" t="n">
+        <v>796</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>mainForm_input796.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="F797" t="n">
+        <v>797</v>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>mainForm_input797.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="F798" t="n">
+        <v>798</v>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>mainForm_input798.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="F799" t="n">
+        <v>799</v>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>mainForm_input799.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="F800" t="n">
+        <v>800</v>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>mainForm_input800.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="F801" t="n">
+        <v>801</v>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>mainForm_input801.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="F802" t="n">
+        <v>802</v>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>mainForm_input802.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="F803" t="n">
+        <v>803</v>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>mainForm_input803.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="F804" t="n">
+        <v>804</v>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>mainForm_input804.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="F805" t="n">
+        <v>805</v>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>mainForm_input805.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="F806" t="n">
+        <v>806</v>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>mainForm_input806.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="F807" t="n">
+        <v>807</v>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>mainForm_input807.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="F808" t="n">
+        <v>808</v>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>mainForm_input808.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="F809" t="n">
+        <v>809</v>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>mainForm_input809.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="F810" t="n">
+        <v>810</v>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>mainForm_input810.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="F811" t="n">
+        <v>811</v>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>mainForm_input811.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="F812" t="n">
+        <v>812</v>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>mainForm_input812.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="F813" t="n">
+        <v>813</v>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>mainForm_input813.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="F814" t="n">
+        <v>814</v>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>mainForm_input814.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="F815" t="n">
+        <v>815</v>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>mainForm_input815.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="F816" t="n">
+        <v>816</v>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>mainForm_input816.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="F817" t="n">
+        <v>817</v>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>mainForm_input817.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="F818" t="n">
+        <v>818</v>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>mainForm_input818.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="F819" t="n">
+        <v>819</v>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>mainForm_input819.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="F820" t="n">
+        <v>820</v>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>mainForm_input820.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="F821" t="n">
+        <v>821</v>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>mainForm_input821.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="F822" t="n">
+        <v>822</v>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>mainForm_input822.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="F823" t="n">
+        <v>823</v>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>mainForm_input823.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="F824" t="n">
+        <v>824</v>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>mainForm_input824.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="F825" t="n">
+        <v>825</v>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>mainForm_input825.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="F826" t="n">
+        <v>826</v>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>mainForm_input826.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="F827" t="n">
+        <v>827</v>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>mainForm_input827.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="F828" t="n">
+        <v>828</v>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>mainForm_input828.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="F829" t="n">
+        <v>829</v>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>mainForm_input829.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="F830" t="n">
+        <v>830</v>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>mainForm_input830.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="F831" t="n">
+        <v>831</v>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>mainForm_input831.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="F832" t="n">
+        <v>832</v>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>mainForm_input832.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="F833" t="n">
+        <v>833</v>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>mainForm_input833.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="F834" t="n">
+        <v>834</v>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>mainForm_input834.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="F835" t="n">
+        <v>835</v>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>mainForm_input835.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="F836" t="n">
+        <v>836</v>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>mainForm_input836.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="F837" t="n">
+        <v>837</v>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>mainForm_input837.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="F838" t="n">
+        <v>838</v>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>mainForm_input838.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="F839" t="n">
+        <v>839</v>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>mainForm_input839.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="F840" t="n">
+        <v>840</v>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>mainForm_input840.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="F841" t="n">
+        <v>841</v>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>mainForm_input841.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="F842" t="n">
+        <v>842</v>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>mainForm_input842.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="F843" t="n">
+        <v>843</v>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>mainForm_input843.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="F844" t="n">
+        <v>844</v>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>mainForm_input844.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="F845" t="n">
+        <v>845</v>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>mainForm_input845.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="F846" t="n">
+        <v>846</v>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>mainForm_input846.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="F847" t="n">
+        <v>847</v>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>mainForm_input847.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="F848" t="n">
+        <v>848</v>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>mainForm_input848.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="F849" t="n">
+        <v>849</v>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>mainForm_input849.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="F850" t="n">
+        <v>850</v>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>mainForm_input850.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="F851" t="n">
+        <v>851</v>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>mainForm_input851.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="F852" t="n">
+        <v>852</v>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>mainForm_input852.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="F853" t="n">
+        <v>853</v>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>mainForm_input853.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="F854" t="n">
+        <v>854</v>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>mainForm_input854.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="F855" t="n">
+        <v>855</v>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>mainForm_input855.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="F856" t="n">
+        <v>856</v>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>mainForm_input856.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="F857" t="n">
+        <v>857</v>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>mainForm_input857.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="F858" t="n">
+        <v>858</v>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>mainForm_input858.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="F859" t="n">
+        <v>859</v>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>mainForm_input859.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="F860" t="n">
+        <v>860</v>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>mainForm_input860.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="F861" t="n">
+        <v>861</v>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>mainForm_input861.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="F862" t="n">
+        <v>862</v>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>mainForm_input862.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="F863" t="n">
+        <v>863</v>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>mainForm_input863.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="F864" t="n">
+        <v>864</v>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>mainForm_input864.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="F865" t="n">
+        <v>865</v>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>mainForm_input865.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="F866" t="n">
+        <v>866</v>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>mainForm_input866.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="F867" t="n">
+        <v>867</v>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>mainForm_input867.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="F868" t="n">
+        <v>868</v>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>mainForm_input868.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="F869" t="n">
+        <v>869</v>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>mainForm_input869.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="F870" t="n">
+        <v>870</v>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>mainForm_input870.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="F871" t="n">
+        <v>871</v>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>mainForm_input871.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="F872" t="n">
+        <v>872</v>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>mainForm_input872.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="F873" t="n">
+        <v>873</v>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>mainForm_input873.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="F874" t="n">
+        <v>874</v>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>mainForm_input874.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="F875" t="n">
+        <v>875</v>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>mainForm_input875.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="F876" t="n">
+        <v>876</v>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>mainForm_input876.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="F877" t="n">
+        <v>877</v>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>mainForm_input877.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="F878" t="n">
+        <v>878</v>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>mainForm_input878.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="F879" t="n">
+        <v>879</v>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>mainForm_input879.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="F880" t="n">
+        <v>880</v>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>mainForm_input880.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="F881" t="n">
+        <v>881</v>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>mainForm_input881.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="F882" t="n">
+        <v>882</v>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>mainForm_input882.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="F883" t="n">
+        <v>883</v>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>mainForm_input883.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="F884" t="n">
+        <v>884</v>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>mainForm_input884.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="F885" t="n">
+        <v>885</v>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>mainForm_input885.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="F886" t="n">
+        <v>886</v>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>mainForm_input886.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="F887" t="n">
+        <v>887</v>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>mainForm_input887.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="F888" t="n">
+        <v>888</v>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>mainForm_input888.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="F889" t="n">
+        <v>889</v>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>mainForm_input889.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="F890" t="n">
+        <v>890</v>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>mainForm_input890.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="F891" t="n">
+        <v>891</v>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>mainForm_input891.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="F892" t="n">
+        <v>892</v>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>mainForm_input892.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="F893" t="n">
+        <v>893</v>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>mainForm_input893.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="F894" t="n">
+        <v>894</v>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>mainForm_input894.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="F895" t="n">
+        <v>895</v>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>mainForm_input895.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="F896" t="n">
+        <v>896</v>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>mainForm_input896.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="F897" t="n">
+        <v>897</v>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>mainForm_input897.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="F898" t="n">
+        <v>898</v>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>mainForm_input898.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="F899" t="n">
+        <v>899</v>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>mainForm_input899.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="F900" t="n">
+        <v>900</v>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>mainForm_input900.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="F901" t="n">
+        <v>901</v>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>mainForm_input901.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="F902" t="n">
+        <v>902</v>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>mainForm_input902.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="F903" t="n">
+        <v>903</v>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>mainForm_input903.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="F904" t="n">
+        <v>904</v>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>mainForm_input904.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="F905" t="n">
+        <v>905</v>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>mainForm_input905.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="F906" t="n">
+        <v>906</v>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>mainForm_input906.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="F907" t="n">
+        <v>907</v>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>mainForm_input907.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="F908" t="n">
+        <v>908</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>mainForm_input908.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="F909" t="n">
+        <v>909</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>mainForm_input909.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="F910" t="n">
+        <v>910</v>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>mainForm_input910.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="F911" t="n">
+        <v>911</v>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>mainForm_input911.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="F912" t="n">
+        <v>912</v>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>mainForm_input912.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="F913" t="n">
+        <v>913</v>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>mainForm_input913.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="F914" t="n">
+        <v>914</v>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>mainForm_input914.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="F915" t="n">
+        <v>915</v>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>mainForm_input915.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="F916" t="n">
+        <v>916</v>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>mainForm_input916.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="F917" t="n">
+        <v>917</v>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>mainForm_input917.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="F918" t="n">
+        <v>918</v>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>mainForm_input918.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="F919" t="n">
+        <v>919</v>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>mainForm_input919.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="F920" t="n">
+        <v>920</v>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>mainForm_input920.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="F921" t="n">
+        <v>921</v>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>mainForm_input921.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="F922" t="n">
+        <v>922</v>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>mainForm_input922.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="F923" t="n">
+        <v>923</v>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>mainForm_input923.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="F924" t="n">
+        <v>924</v>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>mainForm_input924.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="F925" t="n">
+        <v>925</v>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>mainForm_input925.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="F926" t="n">
+        <v>926</v>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>mainForm_input926.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="F927" t="n">
+        <v>927</v>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>mainForm_input927.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="F928" t="n">
+        <v>928</v>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>mainForm_input928.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="F929" t="n">
+        <v>929</v>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>mainForm_input929.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="F930" t="n">
+        <v>930</v>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>mainForm_input930.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="F931" t="n">
+        <v>931</v>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>mainForm_input931.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="F932" t="n">
+        <v>932</v>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>mainForm_input932.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="F933" t="n">
+        <v>933</v>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>mainForm_input933.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="F934" t="n">
+        <v>934</v>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>mainForm_input934.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="F935" t="n">
+        <v>935</v>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>mainForm_input935.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="F936" t="n">
+        <v>936</v>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>mainForm_input936.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="F937" t="n">
+        <v>937</v>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>mainForm_input937.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="F938" t="n">
+        <v>938</v>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>mainForm_input938.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="F939" t="n">
+        <v>939</v>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>mainForm_input939.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="F940" t="n">
+        <v>940</v>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>mainForm_input940.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="F941" t="n">
+        <v>941</v>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>mainForm_input941.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="F942" t="n">
+        <v>942</v>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>mainForm_input942.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="F943" t="n">
+        <v>943</v>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>mainForm_input943.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="F944" t="n">
+        <v>944</v>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>mainForm_input944.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="F945" t="n">
+        <v>945</v>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>mainForm_input945.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="F946" t="n">
+        <v>946</v>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>mainForm_input946.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="F947" t="n">
+        <v>947</v>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>mainForm_input947.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="F948" t="n">
+        <v>948</v>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>mainForm_input948.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="F949" t="n">
+        <v>949</v>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>mainForm_input949.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="F950" t="n">
+        <v>950</v>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>mainForm_input950.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="F951" t="n">
+        <v>951</v>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>mainForm_input951.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="F952" t="n">
+        <v>952</v>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>mainForm_input952.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="F953" t="n">
+        <v>953</v>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>mainForm_input953.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="F954" t="n">
+        <v>954</v>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>mainForm_input954.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="F955" t="n">
+        <v>955</v>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>mainForm_input955.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="F956" t="n">
+        <v>956</v>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>mainForm_input956.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="F957" t="n">
+        <v>957</v>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>mainForm_input957.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="F958" t="n">
+        <v>958</v>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>mainForm_input958.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="F959" t="n">
+        <v>959</v>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>mainForm_input959.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="F960" t="n">
+        <v>960</v>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>mainForm_input960.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="F961" t="n">
+        <v>961</v>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>mainForm_input961.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="F962" t="n">
+        <v>962</v>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>mainForm_input962.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="F963" t="n">
+        <v>963</v>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>mainForm_input963.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="F964" t="n">
+        <v>964</v>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>mainForm_input964.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="F965" t="n">
+        <v>965</v>
+      </c>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>mainForm_input965.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="F966" t="n">
+        <v>966</v>
+      </c>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>mainForm_input966.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="F967" t="n">
+        <v>967</v>
+      </c>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>mainForm_input967.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="F968" t="n">
+        <v>968</v>
+      </c>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>mainForm_input968.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="F969" t="n">
+        <v>969</v>
+      </c>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>mainForm_input969.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="F970" t="n">
+        <v>970</v>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>mainForm_input970.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="F971" t="n">
+        <v>971</v>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>mainForm_input971.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="F972" t="n">
+        <v>972</v>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>mainForm_input972.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="F973" t="n">
+        <v>973</v>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>mainForm_input973.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="F974" t="n">
+        <v>974</v>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>mainForm_input974.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="F975" t="n">
+        <v>975</v>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>mainForm_input975.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="F976" t="n">
+        <v>976</v>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>mainForm_input976.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="F977" t="n">
+        <v>977</v>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>mainForm_input977.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="F978" t="n">
+        <v>978</v>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>mainForm_input978.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="F979" t="n">
+        <v>979</v>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>mainForm_input979.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="F980" t="n">
+        <v>980</v>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>mainForm_input980.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="F981" t="n">
+        <v>981</v>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>mainForm_input981.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="F982" t="n">
+        <v>982</v>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>mainForm_input982.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="F983" t="n">
+        <v>983</v>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>mainForm_input983.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="F984" t="n">
+        <v>984</v>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>mainForm_input984.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="F985" t="n">
+        <v>985</v>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>mainForm_input985.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="F986" t="n">
+        <v>986</v>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>mainForm_input986.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="F987" t="n">
+        <v>987</v>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>mainForm_input987.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="F988" t="n">
+        <v>988</v>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>mainForm_input988.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="F989" t="n">
+        <v>989</v>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>mainForm_input989.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="F990" t="n">
+        <v>990</v>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>mainForm_input990.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="F991" t="n">
+        <v>991</v>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>mainForm_input991.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="F992" t="n">
+        <v>992</v>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>mainForm_input992.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="F993" t="n">
+        <v>993</v>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>mainForm_input993.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="F994" t="n">
+        <v>994</v>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>mainForm_input994.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="F995" t="n">
+        <v>995</v>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>mainForm_input995.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="F996" t="n">
+        <v>996</v>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>mainForm_input996.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="F997" t="n">
+        <v>997</v>
+      </c>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>mainForm_input997.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="F998" t="n">
+        <v>998</v>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>mainForm_input998.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="F999" t="n">
+        <v>999</v>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>mainForm_input999.Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="F1000" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>mainForm_input1000.Text</t>
         </is>
       </c>
     </row>
